--- a/biology/Médecine/Per-Ingvar_Brånemark/Per-Ingvar_Brånemark.xlsx
+++ b/biology/Médecine/Per-Ingvar_Brånemark/Per-Ingvar_Brånemark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Per-Ingvar_Br%C3%A5nemark</t>
+          <t>Per-Ingvar_Brånemark</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Per-Ingvar Brånemark, né le 3 mai 1929 à Göteborg et mort le 20 décembre 2014[1], est un chirurgien orthopédiste[2] et professeur chercheur, inventeur suédois.
-Il est souvent présenté comme le « père de l'implantologie dentaire moderne » car il est l'inventeur des implants dentaires en titane et plus généralement de l'ostéointégration[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Per-Ingvar Brånemark, né le 3 mai 1929 à Göteborg et mort le 20 décembre 2014, est un chirurgien orthopédiste et professeur chercheur, inventeur suédois.
+Il est souvent présenté comme le « père de l'implantologie dentaire moderne » car il est l'inventeur des implants dentaires en titane et plus généralement de l'ostéointégration.
 Il a notamment reçu un European Inventor Award en 2011.
 </t>
         </is>
